--- a/config_10.19/permission_server_config.xlsx
+++ b/config_10.19/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -16241,7 +16241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O429"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D409" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -30618,11 +30618,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1172" sqref="D1172"/>
+      <selection pane="bottomRight" activeCell="D1173" sqref="D1173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -58309,7 +58309,7 @@
         <v>1934</v>
       </c>
       <c r="E1163" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1163" s="21">
         <v>1</v>
@@ -58378,7 +58378,7 @@
         <v>1934</v>
       </c>
       <c r="E1166" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1166" s="21">
         <v>2</v>
@@ -58447,7 +58447,7 @@
         <v>1934</v>
       </c>
       <c r="E1169" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F1169" s="21">
         <v>3</v>
